--- a/Accidentes_transito_pp_.xlsx
+++ b/Accidentes_transito_pp_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f9e6e0322c927b48/Documentos/MIS_UNAM/Segundo_semestre/Series_UNAM_HPi3/Series_UNAM_git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{DF429430-C580-4330-906A-7295899C0520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49E4FB34-15DA-49CF-9393-8E9A327B4B68}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{DF429430-C580-4330-906A-7295899C0520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F293A9AB-7195-4D96-B113-9B499FBDEDFD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E9C482A4-B857-436F-9DC5-C4D7D20035FB}"/>
   </bookViews>
@@ -96,6 +96,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -421,7 +425,7 @@
         <v>36537</v>
       </c>
       <c r="B2" s="2">
-        <v>311938</v>
+        <v>331938</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -565,7 +569,7 @@
         <v>43112</v>
       </c>
       <c r="B20" s="2">
-        <v>365281</v>
+        <v>355281</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
